--- a/biology/Botanique/Dissotis_longisetosa/Dissotis_longisetosa.xlsx
+++ b/biology/Botanique/Dissotis_longisetosa/Dissotis_longisetosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dissotis longisetosa est une espèce de plantes de la famille des Melastomataceae et du genre Dissotis, présente au Nigeria et au Cameroun.
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2011, l'espèce était encore considérée comme « vulnérable »[2] (VU) selon les critères de l'UICN, mais de nouvelles localisations ayant été découvertes, elle a été réévaluée en « quasi menacée » (NT).
-Sa présence a été constatée au Nigeria, à Obudu et sur le plateau de Mambila (Ngurdje Forest Reserve to Gangirwal) ; au Cameroun, dans la réserve forestière de Bafut Ngemba et celle de Bali Ngemba, à Dom, à Tabenken (région du Nord-Ouest) ; à Ngaoundéré dans la région de l'Adamaoua ; sur les hauts plateaux du Lebialem (Sud-Ouest) et sur les monts Bamboutos (Ouest[3]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, l'espèce était encore considérée comme « vulnérable » (VU) selon les critères de l'UICN, mais de nouvelles localisations ayant été découvertes, elle a été réévaluée en « quasi menacée » (NT).
+Sa présence a été constatée au Nigeria, à Obudu et sur le plateau de Mambila (Ngurdje Forest Reserve to Gangirwal) ; au Cameroun, dans la réserve forestière de Bafut Ngemba et celle de Bali Ngemba, à Dom, à Tabenken (région du Nord-Ouest) ; à Ngaoundéré dans la région de l'Adamaoua ; sur les hauts plateaux du Lebialem (Sud-Ouest) et sur les monts Bamboutos (Ouest).
 </t>
         </is>
       </c>
